--- a/5/себестоимостьА_в1.xlsx
+++ b/5/себестоимостьА_в1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndroidS\Desktop\Технологии Обработки Больших Данных\5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0382E8-1BB5-44AD-A224-B18646F28387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF7FEF7-2634-4227-9C14-4A79380913DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2190" windowWidth="25395" windowHeight="11775" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
+    <workbookView xWindow="3405" yWindow="3060" windowWidth="25395" windowHeight="11775" xr2:uid="{3FD16161-D560-4D4D-A0BC-4C85B7BE049D}"/>
   </bookViews>
   <sheets>
     <sheet name="Рецептура" sheetId="3" r:id="rId1"/>
+    <sheet name="Цена ресурсов" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="рцп_пшеничный_хлеб">Рецептура!$B$4:$S$16</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
   <si>
     <t>№</t>
   </si>
@@ -265,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +304,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -415,26 +425,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -489,11 +479,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,10 +525,10 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -526,11 +546,8 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -544,9 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,6 +570,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,20 +589,50 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,61 +640,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -962,16 +986,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D06900-8663-427D-827A-294F00285976}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="B3:AC75"/>
+  <dimension ref="B3:AE75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -1000,98 +1026,98 @@
       <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
       <c r="G5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="30" t="s">
         <v>15</v>
       </c>
       <c r="P5" s="34"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="51"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="53"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="34"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="25"/>
-      <c r="T6" s="51"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -1138,11 +1164,11 @@
       <c r="S7" s="4">
         <v>0.3</v>
       </c>
-      <c r="T7" s="52">
+      <c r="T7" s="54">
         <v>21.480000000000004</v>
       </c>
       <c r="U7">
-        <f>SUMPRODUCT(G7:O7,$G$14:$O$14)</f>
+        <f>SUMPRODUCT(    G7:R7,     $G$14:$R$14)</f>
         <v>21.48</v>
       </c>
     </row>
@@ -1191,11 +1217,11 @@
       <c r="S8" s="4">
         <v>0.2</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="54">
         <v>16.525000000000002</v>
       </c>
-      <c r="U8">
-        <f t="shared" ref="U8:U10" si="0">SUMPRODUCT(G8:O8,$G$14:$O$14)</f>
+      <c r="U8" s="20">
+        <f t="shared" ref="U8:U10" si="0">SUMPRODUCT(    G8:R8,     $G$14:$R$14)</f>
         <v>16.524999999999999</v>
       </c>
     </row>
@@ -1244,10 +1270,10 @@
       <c r="S9" s="4">
         <v>0.3</v>
       </c>
-      <c r="T9" s="52">
+      <c r="T9" s="54">
         <v>17.423000000000002</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="20">
         <f t="shared" si="0"/>
         <v>17.423000000000002</v>
       </c>
@@ -1293,10 +1319,10 @@
       <c r="S10" s="4">
         <v>0.2</v>
       </c>
-      <c r="T10" s="52">
+      <c r="T10" s="54">
         <v>18.085000000000001</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="20">
         <f t="shared" si="0"/>
         <v>18.085000000000001</v>
       </c>
@@ -1376,39 +1402,51 @@
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="G14" s="7">
+        <f>IFERROR(VLOOKUP(G5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
       <c r="H14" s="7">
+        <f>IFERROR(VLOOKUP(H5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>10</v>
       </c>
       <c r="I14" s="7">
+        <f>IFERROR(VLOOKUP(I5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>184</v>
       </c>
       <c r="J14" s="7">
+        <f>IFERROR(VLOOKUP(J5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>19</v>
       </c>
       <c r="K14" s="7">
+        <f>IFERROR(VLOOKUP(K5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
       <c r="L14" s="7">
+        <f>IFERROR(VLOOKUP(L5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>290</v>
       </c>
       <c r="M14" s="7">
+        <f>IFERROR(VLOOKUP(M5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>105</v>
       </c>
       <c r="N14" s="7">
+        <f>IFERROR(VLOOKUP(N5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>83</v>
       </c>
       <c r="O14" s="7">
+        <f>IFERROR(VLOOKUP(O5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>260</v>
       </c>
       <c r="P14" s="7">
+        <f>IFERROR(VLOOKUP(P5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="7">
+        <f>IFERROR(VLOOKUP(Q5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="7">
+        <f>IFERROR(VLOOKUP(R5,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="S14" s="37"/>
@@ -1499,7 +1537,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="39"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="40" t="s">
         <v>69</v>
       </c>
@@ -1520,20 +1558,20 @@
       <c r="Q19" s="40"/>
       <c r="R19" s="40"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="29" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="36" t="s">
@@ -1552,62 +1590,67 @@
       <c r="R20" s="41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="27" t="s">
+      <c r="K21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="27" t="s">
+      <c r="L21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="27"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="26"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="42"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="53"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="26"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="26"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="43"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="53"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>8</v>
       </c>
@@ -1649,8 +1692,15 @@
       <c r="R23" s="11">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="54">
+        <v>14.345000000000001</v>
+      </c>
+      <c r="T23">
+        <f>SUMPRODUCT(    G23:Q23,     $G$31:$Q$31)</f>
+        <v>14.345000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>9</v>
       </c>
@@ -1696,8 +1746,15 @@
       <c r="R24" s="11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="54">
+        <v>29.75</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" ref="T24:T25" si="1">SUMPRODUCT(    G24:Q24,     $G$31:$Q$31)</f>
+        <v>29.750000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>10</v>
       </c>
@@ -1741,8 +1798,15 @@
       <c r="R25" s="11">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="54">
+        <v>10.138</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="1"/>
+        <v>10.138000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>11</v>
       </c>
@@ -1763,7 +1827,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="12"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>12</v>
       </c>
@@ -1784,7 +1848,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="12"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>13</v>
       </c>
@@ -1805,7 +1869,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="12"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>14</v>
       </c>
@@ -1826,7 +1890,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="12"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>15</v>
       </c>
@@ -1847,7 +1911,7 @@
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="36" t="s">
         <v>20</v>
       </c>
@@ -1855,42 +1919,53 @@
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
-      <c r="G31" s="13">
+      <c r="G31" s="7">
+        <f>IFERROR(VLOOKUP(G21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="7">
+        <f>IFERROR(VLOOKUP(H21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="7">
+        <f>IFERROR(VLOOKUP(I21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="7">
+        <f>IFERROR(VLOOKUP(J21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>184</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="7">
+        <f>IFERROR(VLOOKUP(K21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="7">
+        <f>IFERROR(VLOOKUP(L21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="M31" s="13">
+      <c r="M31" s="7">
+        <f>IFERROR(VLOOKUP(M21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>260</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="7">
+        <f>IFERROR(VLOOKUP(N21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>108</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="7">
+        <f>IFERROR(VLOOKUP(O21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="7">
+        <f>IFERROR(VLOOKUP(P21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="7">
+        <f>IFERROR(VLOOKUP(Q21,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="R31" s="44"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="36" t="s">
         <v>21</v>
       </c>
@@ -1933,7 +2008,7 @@
       </c>
       <c r="R32" s="44"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="36" t="s">
         <v>22</v>
       </c>
@@ -1965,91 +2040,94 @@
       <c r="N33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
       <c r="R33" s="44"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B36" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
-      <c r="AB36" s="45"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="47"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B37" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C37" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="27" t="s">
+      <c r="D37" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
-      <c r="AA37" s="26"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="50"/>
       <c r="AB37" s="41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC37" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
       <c r="G38" s="26" t="s">
         <v>7</v>
       </c>
@@ -2059,40 +2137,40 @@
       <c r="I38" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J38" s="28" t="s">
+      <c r="J38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="28" t="s">
+      <c r="K38" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="L38" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="O38" s="28" t="s">
+      <c r="O38" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="P38" s="28" t="s">
+      <c r="P38" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q38" s="28" t="s">
+      <c r="Q38" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="28" t="s">
+      <c r="R38" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="S38" s="28" t="s">
+      <c r="S38" s="30" t="s">
         <v>15</v>
       </c>
       <c r="T38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="U38" s="28" t="s">
+      <c r="U38" s="30" t="s">
         <v>36</v>
       </c>
       <c r="V38" s="26" t="s">
@@ -2108,41 +2186,43 @@
       <c r="Z38" s="35"/>
       <c r="AA38" s="35"/>
       <c r="AB38" s="42"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AC38" s="53"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="26"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="28"/>
+      <c r="U39" s="30"/>
       <c r="V39" s="26"/>
       <c r="W39" s="26"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
       <c r="AB39" s="43"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="AC39" s="53"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
         <v>16</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D40" s="2">
@@ -2181,7 +2261,7 @@
         <v>0.03</v>
       </c>
       <c r="S40" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
@@ -2196,12 +2276,19 @@
       <c r="AB40" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+      <c r="AC40" s="54">
+        <v>25.574999999999999</v>
+      </c>
+      <c r="AD40">
+        <f>SUMPRODUCT(    G40:AA40,     $G$52:$AA$52)</f>
+        <v>25.574999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
         <v>17</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="2">
@@ -2253,12 +2340,19 @@
       <c r="AB41" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+      <c r="AC41" s="54">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AD41" s="20">
+        <f t="shared" ref="AD41:AD46" si="2">SUMPRODUCT(    G41:AA41,     $G$52:$AA$52)</f>
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
         <v>18</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="2">
@@ -2310,12 +2404,19 @@
       <c r="AB42" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
+      <c r="AC42" s="54">
+        <v>37.055000000000007</v>
+      </c>
+      <c r="AD42" s="20">
+        <f t="shared" si="2"/>
+        <v>37.055000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
         <v>19</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="2">
@@ -2369,12 +2470,19 @@
       <c r="AB43" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="AC43" s="54">
+        <v>29.54</v>
+      </c>
+      <c r="AD43" s="20">
+        <f t="shared" si="2"/>
+        <v>29.540000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
         <v>20</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="2">
@@ -2426,12 +2534,19 @@
       <c r="AB44" s="4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+      <c r="AC44" s="54">
+        <v>28.33</v>
+      </c>
+      <c r="AD44" s="20">
+        <f t="shared" si="2"/>
+        <v>28.33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
         <v>21</v>
       </c>
-      <c r="C45" s="16" t="s">
+      <c r="C45" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="2">
@@ -2483,12 +2598,19 @@
       <c r="AB45" s="4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+      <c r="AC45" s="54">
+        <v>22.615000000000002</v>
+      </c>
+      <c r="AD45" s="20">
+        <f t="shared" si="2"/>
+        <v>22.614999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
         <v>22</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D46" s="2">
@@ -2536,13 +2658,20 @@
       <c r="AB46" s="4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+      <c r="AC46" s="54">
+        <v>32.14</v>
+      </c>
+      <c r="AD46" s="20">
+        <f t="shared" si="2"/>
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
         <v>23</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
@@ -2568,12 +2697,12 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="4"/>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B48" s="15">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
         <v>24</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
@@ -2599,12 +2728,12 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="4"/>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
         <v>25</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
@@ -2630,12 +2759,12 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="4"/>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
         <v>26</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
@@ -2661,12 +2790,12 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="4"/>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
         <v>27</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="2"/>
@@ -2692,7 +2821,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="4"/>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="36" t="s">
         <v>20</v>
       </c>
@@ -2700,72 +2829,93 @@
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="18">
+      <c r="G52" s="7">
+        <f>IFERROR(VLOOKUP(G38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="7">
+        <f>IFERROR(VLOOKUP(H38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="7">
+        <f>IFERROR(VLOOKUP(I38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="7">
+        <f>IFERROR(VLOOKUP(J38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="7">
+        <f>IFERROR(VLOOKUP(K38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="7">
+        <f>IFERROR(VLOOKUP(L38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="7">
+        <f>IFERROR(VLOOKUP(M38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>184</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="7">
+        <f>IFERROR(VLOOKUP(N38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="7">
+        <f>IFERROR(VLOOKUP(O38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="P52" s="18">
+      <c r="P52" s="7">
+        <f>IFERROR(VLOOKUP(P38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>290</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="7">
+        <f>IFERROR(VLOOKUP(Q38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>40</v>
       </c>
-      <c r="R52" s="18">
+      <c r="R52" s="7">
+        <f>IFERROR(VLOOKUP(R38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>83</v>
       </c>
-      <c r="S52" s="18">
+      <c r="S52" s="7">
+        <f>IFERROR(VLOOKUP(S38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>260</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="7">
+        <f>IFERROR(VLOOKUP(T38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>1</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="7">
+        <f>IFERROR(VLOOKUP(U38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="7">
+        <f>IFERROR(VLOOKUP(V38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>40</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="7">
+        <f>IFERROR(VLOOKUP(W38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>83</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="7">
+        <f>IFERROR(VLOOKUP(X38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>160</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="7">
+        <f>IFERROR(VLOOKUP(Y38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="7">
+        <f>IFERROR(VLOOKUP(Z38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AA52" s="7">
+        <f>IFERROR(VLOOKUP(AA38,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>0</v>
       </c>
-      <c r="AB52" s="46"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB52" s="51"/>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="36" t="s">
         <v>21</v>
       </c>
@@ -2836,9 +2986,9 @@
       <c r="AA53" s="8">
         <v>0</v>
       </c>
-      <c r="AB53" s="46"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB53" s="51"/>
+    </row>
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="36" t="s">
         <v>22</v>
       </c>
@@ -2846,179 +2996,182 @@
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
       <c r="F54" s="36"/>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="14" t="s">
+      <c r="J54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L54" s="14" t="s">
+      <c r="L54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M54" s="14" t="s">
+      <c r="M54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="O54" s="14" t="s">
+      <c r="O54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="P54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q54" s="14" t="s">
+      <c r="Q54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R54" s="14" t="s">
+      <c r="R54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S54" s="14" t="s">
+      <c r="S54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="T54" s="14" t="s">
+      <c r="T54" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="14" t="s">
+      <c r="U54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V54" s="14" t="s">
+      <c r="V54" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W54" s="14" t="s">
+      <c r="W54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X54" s="14" t="s">
+      <c r="X54" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="46"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B57" s="47" t="s">
+      <c r="AB54" s="51"/>
+    </row>
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B57" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="48"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="48"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="48"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="48"/>
-      <c r="AA57" s="48"/>
-      <c r="AB57" s="48"/>
-      <c r="AC57" s="49"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="47"/>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G58" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="49"/>
+      <c r="U58" s="49"/>
+      <c r="V58" s="49"/>
+      <c r="W58" s="49"/>
+      <c r="X58" s="49"/>
+      <c r="Y58" s="49"/>
+      <c r="Z58" s="49"/>
+      <c r="AA58" s="49"/>
+      <c r="AB58" s="50"/>
       <c r="AC58" s="41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD58" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="26"/>
       <c r="C59" s="26"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
       <c r="G59" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I59" s="28" t="s">
+      <c r="I59" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="28" t="s">
+      <c r="K59" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="28" t="s">
+      <c r="L59" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="M59" s="28" t="s">
+      <c r="M59" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N59" s="28" t="s">
+      <c r="N59" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="28" t="s">
+      <c r="O59" s="30" t="s">
         <v>15</v>
       </c>
       <c r="P59" s="26" t="s">
@@ -3030,7 +3183,7 @@
       <c r="R59" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="S59" s="50" t="s">
+      <c r="S59" s="52" t="s">
         <v>14</v>
       </c>
       <c r="T59" s="26" t="s">
@@ -3055,26 +3208,27 @@
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
       <c r="AC59" s="42"/>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD59" s="53"/>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="26"/>
       <c r="C60" s="26"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
       <c r="G60" s="26"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
       <c r="P60" s="26"/>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
-      <c r="S60" s="50"/>
+      <c r="S60" s="52"/>
       <c r="T60" s="26"/>
       <c r="U60" s="26"/>
       <c r="V60" s="26"/>
@@ -3085,12 +3239,13 @@
       <c r="AA60" s="26"/>
       <c r="AB60" s="26"/>
       <c r="AC60" s="43"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B61" s="15">
+      <c r="AD60" s="53"/>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B61" s="14">
         <v>28</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="2">
@@ -3128,27 +3283,34 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="P61" s="2"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10"/>
       <c r="V61" s="2"/>
-      <c r="W61" s="17"/>
-      <c r="X61" s="17"/>
-      <c r="Y61" s="17"/>
-      <c r="Z61" s="17"/>
-      <c r="AA61" s="17"/>
-      <c r="AB61" s="17"/>
-      <c r="AC61" s="4">
+      <c r="W61" s="16"/>
+      <c r="X61" s="16"/>
+      <c r="Y61" s="16"/>
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B62" s="15">
+      <c r="AD61" s="54">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="AE61">
+        <f>SUMPRODUCT(    G61:AB61,     $G$73:$AB$73)</f>
+        <v>7.0549999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
         <v>29</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D62" s="2">
@@ -3186,31 +3348,38 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="P62" s="2"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10"/>
       <c r="V62" s="2"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17">
+      <c r="W62" s="16"/>
+      <c r="X62" s="16">
         <v>0.02</v>
       </c>
-      <c r="Y62" s="17">
+      <c r="Y62" s="16">
         <v>0.02</v>
       </c>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="17"/>
-      <c r="AC62" s="4">
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B63" s="15">
+      <c r="AD62" s="54">
+        <v>9.4149999999999991</v>
+      </c>
+      <c r="AE62" s="20">
+        <f t="shared" ref="AE62:AE69" si="3">SUMPRODUCT(    G62:AB62,     $G$73:$AB$73)</f>
+        <v>9.4149999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B63" s="14">
         <v>30</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>61</v>
       </c>
       <c r="D63" s="2">
@@ -3248,29 +3417,36 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="P63" s="2"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
       <c r="T63" s="10"/>
       <c r="U63" s="10"/>
       <c r="V63" s="2">
         <v>0.01</v>
       </c>
-      <c r="W63" s="17"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="17"/>
-      <c r="Z63" s="17"/>
-      <c r="AA63" s="17"/>
-      <c r="AB63" s="17"/>
-      <c r="AC63" s="4">
+      <c r="W63" s="16"/>
+      <c r="X63" s="16"/>
+      <c r="Y63" s="16"/>
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16"/>
+      <c r="AC63" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B64" s="15">
+      <c r="AD63" s="54">
+        <v>9.0549999999999997</v>
+      </c>
+      <c r="AE63" s="20">
+        <f t="shared" si="3"/>
+        <v>9.0549999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
         <v>31</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D64" s="2">
@@ -3310,27 +3486,34 @@
       <c r="P64" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
       <c r="T64" s="10"/>
       <c r="U64" s="10"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="4">
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B65" s="15">
+      <c r="AD64" s="54">
+        <v>7.37</v>
+      </c>
+      <c r="AE64" s="20">
+        <f t="shared" si="3"/>
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
         <v>32</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D65" s="2">
@@ -3362,35 +3545,42 @@
       </c>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
-      <c r="Q65" s="20">
+      <c r="Q65" s="18">
         <v>0.01</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="18">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S65" s="18">
         <v>0.01</v>
       </c>
       <c r="T65" s="10"/>
-      <c r="U65" s="20">
+      <c r="U65" s="18">
         <v>0.01</v>
       </c>
       <c r="V65" s="2"/>
-      <c r="W65" s="17"/>
-      <c r="X65" s="17"/>
-      <c r="Y65" s="17"/>
-      <c r="Z65" s="17"/>
-      <c r="AA65" s="17"/>
-      <c r="AB65" s="17"/>
-      <c r="AC65" s="4">
+      <c r="W65" s="16"/>
+      <c r="X65" s="16"/>
+      <c r="Y65" s="16"/>
+      <c r="Z65" s="16"/>
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="21">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B66" s="15">
+      <c r="AD65" s="54">
+        <v>11.172171000000001</v>
+      </c>
+      <c r="AE65" s="20">
+        <f t="shared" si="3"/>
+        <v>11.172171000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B66" s="14">
         <v>33</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="2">
@@ -3402,7 +3592,7 @@
       <c r="F66" s="3">
         <v>70</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G66" s="18">
         <v>1.9047619047619049E-2</v>
       </c>
       <c r="H66" s="2">
@@ -3424,33 +3614,40 @@
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20">
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18">
         <v>0.01</v>
       </c>
-      <c r="T66" s="20">
+      <c r="T66" s="18">
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="U66" s="20">
+      <c r="U66" s="18">
         <v>0.01</v>
       </c>
       <c r="V66" s="2"/>
-      <c r="W66" s="17"/>
-      <c r="X66" s="17"/>
-      <c r="Y66" s="17"/>
-      <c r="Z66" s="17"/>
-      <c r="AA66" s="17"/>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="4">
+      <c r="W66" s="16"/>
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="21">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B67" s="15">
+      <c r="AD66" s="54">
+        <v>17.38020634920635</v>
+      </c>
+      <c r="AE66" s="20">
+        <f t="shared" si="3"/>
+        <v>17.38020634920635</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
         <v>34</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>65</v>
       </c>
       <c r="D67" s="2">
@@ -3484,31 +3681,38 @@
       </c>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="20">
+      <c r="Q67" s="18">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20">
+      <c r="R67" s="18"/>
+      <c r="S67" s="18">
         <v>0.01</v>
       </c>
       <c r="T67" s="10"/>
-      <c r="U67" s="20"/>
+      <c r="U67" s="18"/>
       <c r="V67" s="2"/>
-      <c r="W67" s="17"/>
-      <c r="X67" s="17"/>
-      <c r="Y67" s="17"/>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="4">
+      <c r="W67" s="16"/>
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16"/>
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16"/>
+      <c r="AC67" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B68" s="15">
+      <c r="AD67" s="54">
+        <v>10.491476190476188</v>
+      </c>
+      <c r="AE67" s="20">
+        <f t="shared" si="3"/>
+        <v>10.49147619047619</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
         <v>35</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D68" s="2">
@@ -3544,31 +3748,38 @@
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20">
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18">
         <v>0.01</v>
       </c>
       <c r="T68" s="10"/>
-      <c r="U68" s="20"/>
+      <c r="U68" s="18"/>
       <c r="V68" s="2"/>
-      <c r="W68" s="17">
+      <c r="W68" s="16">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="X68" s="17"/>
-      <c r="Y68" s="17"/>
-      <c r="Z68" s="17"/>
-      <c r="AA68" s="17"/>
-      <c r="AB68" s="17"/>
-      <c r="AC68" s="4">
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16"/>
+      <c r="Z68" s="16"/>
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B69" s="15">
+      <c r="AD68" s="54">
+        <v>9.2741904761904745</v>
+      </c>
+      <c r="AE68" s="20">
+        <f t="shared" si="3"/>
+        <v>9.2741904761904745</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
         <v>36</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D69" s="2">
@@ -3600,32 +3811,39 @@
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
       <c r="T69" s="10"/>
       <c r="U69" s="10"/>
       <c r="V69" s="2"/>
-      <c r="W69" s="17"/>
-      <c r="X69" s="17">
+      <c r="W69" s="16"/>
+      <c r="X69" s="16">
         <v>0.1</v>
       </c>
-      <c r="Y69" s="17">
+      <c r="Y69" s="16">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Z69" s="17"/>
-      <c r="AA69" s="17"/>
-      <c r="AB69" s="17"/>
-      <c r="AC69" s="4">
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B70" s="15">
+      <c r="AD69" s="54">
+        <v>26.588428571428572</v>
+      </c>
+      <c r="AE69" s="20">
+        <f t="shared" si="3"/>
+        <v>26.588428571428572</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
         <v>37</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="2"/>
@@ -3638,26 +3856,26 @@
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10"/>
       <c r="V70" s="2"/>
-      <c r="W70" s="17"/>
-      <c r="X70" s="17"/>
-      <c r="Y70" s="17"/>
-      <c r="Z70" s="17"/>
-      <c r="AA70" s="17"/>
-      <c r="AB70" s="17"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
       <c r="AC70" s="4"/>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B71" s="15">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
         <v>38</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="2"/>
@@ -3670,26 +3888,26 @@
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
       <c r="T71" s="10"/>
       <c r="U71" s="10"/>
       <c r="V71" s="2"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="17"/>
+      <c r="W71" s="16"/>
+      <c r="X71" s="16"/>
+      <c r="Y71" s="16"/>
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16"/>
       <c r="AC71" s="4"/>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B72" s="15">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B72" s="14">
         <v>39</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="2"/>
@@ -3702,21 +3920,21 @@
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
       <c r="T72" s="10"/>
       <c r="U72" s="10"/>
       <c r="V72" s="2"/>
-      <c r="W72" s="17"/>
-      <c r="X72" s="17"/>
-      <c r="Y72" s="17"/>
-      <c r="Z72" s="17"/>
-      <c r="AA72" s="17"/>
-      <c r="AB72" s="17"/>
+      <c r="W72" s="16"/>
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16"/>
+      <c r="Z72" s="16"/>
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
       <c r="AC72" s="4"/>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="36" t="s">
         <v>20</v>
       </c>
@@ -3724,69 +3942,97 @@
       <c r="D73" s="36"/>
       <c r="E73" s="36"/>
       <c r="F73" s="36"/>
-      <c r="G73" s="18">
+      <c r="G73" s="7">
+        <f>IFERROR(VLOOKUP(G59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="7">
+        <f>IFERROR(VLOOKUP(H59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>10</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I73" s="7">
+        <f>IFERROR(VLOOKUP(I59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>184</v>
       </c>
-      <c r="J73" s="18">
+      <c r="J73" s="7">
+        <f>IFERROR(VLOOKUP(J59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>19</v>
       </c>
-      <c r="K73" s="18">
+      <c r="K73" s="7">
+        <f>IFERROR(VLOOKUP(K59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>7</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="7">
+        <f>IFERROR(VLOOKUP(L59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>40</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="7">
+        <f>IFERROR(VLOOKUP(M59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>150</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="7">
+        <f>IFERROR(VLOOKUP(N59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>4</v>
       </c>
-      <c r="O73" s="18">
+      <c r="O73" s="7">
+        <f>IFERROR(VLOOKUP(O59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>260</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="7">
+        <f>IFERROR(VLOOKUP(P59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>63</v>
       </c>
-      <c r="Q73" s="18">
+      <c r="Q73" s="7">
+        <f>IFERROR(VLOOKUP(Q59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>110</v>
       </c>
-      <c r="R73" s="18">
+      <c r="R73" s="7">
+        <f>IFERROR(VLOOKUP(R59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>270</v>
       </c>
-      <c r="S73" s="18">
+      <c r="S73" s="7">
+        <f>IFERROR(VLOOKUP(S59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>83</v>
       </c>
-      <c r="T73" s="3">
+      <c r="T73" s="7">
+        <f>IFERROR(VLOOKUP(T59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>250</v>
       </c>
-      <c r="U73" s="3">
+      <c r="U73" s="7">
+        <f>IFERROR(VLOOKUP(U59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>280</v>
       </c>
-      <c r="V73" s="3">
+      <c r="V73" s="7">
+        <f>IFERROR(VLOOKUP(V59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>200</v>
       </c>
-      <c r="W73" s="3">
+      <c r="W73" s="7">
+        <f>IFERROR(VLOOKUP(W59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>80</v>
       </c>
-      <c r="X73" s="3">
+      <c r="X73" s="7">
+        <f>IFERROR(VLOOKUP(X59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>25</v>
       </c>
-      <c r="Y73" s="3">
+      <c r="Y73" s="7">
+        <f>IFERROR(VLOOKUP(Y59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
         <v>93</v>
       </c>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="46"/>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="Z73" s="7">
+        <f>IFERROR(VLOOKUP(Z59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="7">
+        <f>IFERROR(VLOOKUP(AA59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AB73" s="7">
+        <f>IFERROR(VLOOKUP(AB59,'Цена ресурсов'!$A$1:$B$32,2,FALSE),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="51"/>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" s="36" t="s">
         <v>21</v>
       </c>
@@ -3860,9 +4106,9 @@
       <c r="AB74" s="8">
         <v>0</v>
       </c>
-      <c r="AC74" s="46"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AC74" s="51"/>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" s="36" t="s">
         <v>22</v>
       </c>
@@ -3870,34 +4116,34 @@
       <c r="D75" s="36"/>
       <c r="E75" s="36"/>
       <c r="F75" s="36"/>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J75" s="14" t="s">
+      <c r="J75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="14" t="s">
+      <c r="K75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="14" t="s">
+      <c r="L75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M75" s="14" t="s">
+      <c r="M75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="N75" s="14" t="s">
+      <c r="N75" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O75" s="14" t="s">
+      <c r="O75" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P75" s="14" t="s">
+      <c r="P75" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q75" s="9" t="s">
@@ -3912,28 +4158,28 @@
       <c r="T75" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="U75" s="14" t="s">
+      <c r="U75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V75" s="21" t="s">
+      <c r="V75" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="W75" s="14" t="s">
+      <c r="W75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="X75" s="14" t="s">
+      <c r="X75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Y75" s="14" t="s">
+      <c r="Y75" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="46"/>
+      <c r="AC75" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
+  <mergeCells count="118">
     <mergeCell ref="T4:T6"/>
     <mergeCell ref="B73:F73"/>
     <mergeCell ref="AC73:AC75"/>
@@ -4012,6 +4258,9 @@
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="N21:N22"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
     <mergeCell ref="B19:R19"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
@@ -4025,16 +4274,9 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AD58:AD60"/>
+    <mergeCell ref="S20:S22"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -4049,7 +4291,291 @@
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939DD9F0-A6D8-43C6-81ED-507D54CB6910}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>